--- a/premium/src/main/resources/VoluntaryDeductible.xlsx
+++ b/premium/src/main/resources/VoluntaryDeductible.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3FE130-F2BC-8E45-9442-85BFF51A98CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D694AF-B648-914D-9C26-8393B1DD86D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{C97729C7-D54F-3643-971A-A69E18B76DC3}"/>
   </bookViews>
@@ -68,12 +68,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,11 +122,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,15 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,7 +474,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,34 +522,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G2" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J2" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K2" s="5">
-        <v>-0.1</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.746</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -541,34 +557,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G3" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J3" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K3" s="5">
-        <v>-0.1</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.247</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -576,34 +592,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G4" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J4" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-0.1</v>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.218</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -611,34 +627,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F5" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J5" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-0.1</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -646,34 +662,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J6" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-0.1</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -681,34 +697,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G7" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J7" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-0.1</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.754</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -716,34 +732,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="F8" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G8" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="J8" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-0.1</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.754</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.81599999999999995</v>
       </c>
     </row>
   </sheetData>
